--- a/1차_가공/국민대학교 국제캠퍼스 22년 1학기 1차 가공 완료.xlsx
+++ b/1차_가공/국민대학교 국제캠퍼스 22년 1학기 1차 가공 완료.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21607" uniqueCount="3721">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21609" uniqueCount="3721">
   <si>
     <t>대학교명</t>
   </si>
@@ -49,7 +49,7 @@
     <t>국제캠퍼스</t>
   </si>
   <si>
-    <t>S-TEAM Class</t>
+    <t>S-TEAMClass</t>
   </si>
   <si>
     <t>사제동행세미나</t>
@@ -145,7 +145,7 @@
     <t>연주V</t>
   </si>
   <si>
-    <t>합창 캡스톤디자인 V</t>
+    <t>합창캡스톤디자인V</t>
   </si>
   <si>
     <t>실내악III</t>
@@ -250,7 +250,7 @@
     <t>경영영어실습</t>
   </si>
   <si>
-    <t>Seminar in Special Topics</t>
+    <t>SeminarinSpecialTopics</t>
   </si>
   <si>
     <t>SW기술영어Ⅰ</t>
@@ -322,7 +322,7 @@
     <t>융합특강</t>
   </si>
   <si>
-    <t>기업가정신 사회봉사I</t>
+    <t>기업가정신사회봉사I</t>
   </si>
   <si>
     <t>기업가정신특강</t>
@@ -361,7 +361,7 @@
     <t>영어학의기초</t>
   </si>
   <si>
-    <t>Pronunciation in Context</t>
+    <t>PronunciationinContext</t>
   </si>
   <si>
     <t>시사중국어</t>
@@ -544,7 +544,7 @@
     <t>디자인스토리텔링</t>
   </si>
   <si>
-    <t>2D 디지털그래픽스</t>
+    <t>2D디지털그래픽스</t>
   </si>
   <si>
     <t>디자인론</t>
@@ -697,7 +697,7 @@
     <t>공간과물성Ⅰ</t>
   </si>
   <si>
-    <t>공간디자인사 I</t>
+    <t>공간디자인사I</t>
   </si>
   <si>
     <t>공간과그래픽</t>
@@ -760,7 +760,7 @@
     <t>기초드로잉</t>
   </si>
   <si>
-    <t>Advanced Visual Communication 1</t>
+    <t>AdvancedVisualCommunication1</t>
   </si>
   <si>
     <t>영상프레젠테이션1</t>
@@ -799,7 +799,7 @@
     <t>일반화학</t>
   </si>
   <si>
-    <t>식품영양연구 I</t>
+    <t>식품영양연구I</t>
   </si>
   <si>
     <t>영양사현장실습</t>
@@ -1138,7 +1138,7 @@
     <t>창작연극워크샵1</t>
   </si>
   <si>
-    <t>무용공연실습(Capstone Design)</t>
+    <t>무용공연실습(CapstoneDesign)</t>
   </si>
   <si>
     <t>가창1</t>
@@ -1159,7 +1159,7 @@
     <t>영화분석과비평</t>
   </si>
   <si>
-    <t>공연제작워크샵 캡스톤디자인(졸업공연)</t>
+    <t>공연제작워크샵캡스톤디자인(졸업공연)</t>
   </si>
   <si>
     <t>연기3</t>
@@ -1183,7 +1183,7 @@
     <t>영화기술(촬영)</t>
   </si>
   <si>
-    <t>Community Theater I</t>
+    <t>CommunityTheaterI</t>
   </si>
   <si>
     <t>영화드라마대본분석</t>
@@ -1270,7 +1270,7 @@
     <t>건축의이해</t>
   </si>
   <si>
-    <t>CAAD I</t>
+    <t>CAADI</t>
   </si>
   <si>
     <t>매체와표현I</t>
@@ -1285,16 +1285,16 @@
     <t>자율주행자동차기술</t>
   </si>
   <si>
-    <t>College English I</t>
-  </si>
-  <si>
-    <t>College English I(ABEEK)</t>
-  </si>
-  <si>
-    <t>English Conversation I</t>
-  </si>
-  <si>
-    <t>English Conversation I(ABEEK)</t>
+    <t>CollegeEnglishI</t>
+  </si>
+  <si>
+    <t>CollegeEnglishI(ABEEK)</t>
+  </si>
+  <si>
+    <t>EnglishConversationI</t>
+  </si>
+  <si>
+    <t>EnglishConversationI(ABEEK)</t>
   </si>
   <si>
     <t>사서삼경의이해</t>
@@ -1321,7 +1321,7 @@
     <t>다례</t>
   </si>
   <si>
-    <t>Korean Tea Ceremony and world Tea Culture</t>
+    <t>KoreanTeaCeremonyandworldTeaCulture</t>
   </si>
   <si>
     <t>현대인의식생활과건강</t>
@@ -1393,13 +1393,13 @@
     <t>시민생활과세금</t>
   </si>
   <si>
-    <t>College English II(ABEEK)</t>
-  </si>
-  <si>
-    <t>English Conversation II</t>
-  </si>
-  <si>
-    <t>English Conversation II(ABEEK)</t>
+    <t>CollegeEnglishII(ABEEK)</t>
+  </si>
+  <si>
+    <t>EnglishConversationII</t>
+  </si>
+  <si>
+    <t>EnglishConversationII(ABEEK)</t>
   </si>
   <si>
     <t>북한역사의이해</t>
@@ -1477,7 +1477,7 @@
     <t>실용한국어Ⅰ</t>
   </si>
   <si>
-    <t>The English Scriptures as Literature</t>
+    <t>TheEnglishScripturesasLiterature</t>
   </si>
   <si>
     <t>한국문화의이해Ⅱ</t>
@@ -1486,10 +1486,10 @@
     <t>문화예술교육의이해</t>
   </si>
   <si>
-    <t>South Korean-U.S. Relations</t>
-  </si>
-  <si>
-    <t>History of Western Philosophy</t>
+    <t>SouthKorean-U.S.Relations</t>
+  </si>
+  <si>
+    <t>HistoryofWesternPhilosophy</t>
   </si>
   <si>
     <t>한국문화의이해Ⅰ</t>
@@ -1513,10 +1513,10 @@
     <t>중급스페인어</t>
   </si>
   <si>
-    <t>English Conversation (Advanced)</t>
-  </si>
-  <si>
-    <t>English Conversation (Advanced)(ABEEK)</t>
+    <t>EnglishConversation(Advanced)</t>
+  </si>
+  <si>
+    <t>EnglishConversation(Advanced)(ABEEK)</t>
   </si>
   <si>
     <t>기초베트남어</t>
@@ -1537,7 +1537,7 @@
     <t>실용한국어Ⅱ</t>
   </si>
   <si>
-    <t>Advanced Reading for Business Professionals</t>
+    <t>AdvancedReadingforBusinessProfessionals</t>
   </si>
   <si>
     <t>플러스알파I</t>
@@ -1678,10 +1678,10 @@
     <t>영한전문번역</t>
   </si>
   <si>
-    <t>Global Issues</t>
-  </si>
-  <si>
-    <t>Business Communication(1)</t>
+    <t>GlobalIssues</t>
+  </si>
+  <si>
+    <t>BusinessCommunication(1)</t>
   </si>
   <si>
     <t>경전강독</t>
@@ -1867,7 +1867,7 @@
     <t>정치학개론</t>
   </si>
   <si>
-    <t>정치학특강 I</t>
+    <t>정치학특강I</t>
   </si>
   <si>
     <t>한국정치론</t>
@@ -2077,7 +2077,7 @@
     <t>러시아정치의이해</t>
   </si>
   <si>
-    <t>러시아어 III</t>
+    <t>러시아어III</t>
   </si>
   <si>
     <t>러시아근대사</t>
@@ -2242,7 +2242,7 @@
     <t>기업법무세미나</t>
   </si>
   <si>
-    <t>Introduction of U.S. Law</t>
+    <t>IntroductionofU.S.Law</t>
   </si>
   <si>
     <t>환경법</t>
@@ -2326,7 +2326,7 @@
     <t>문화예술경제학</t>
   </si>
   <si>
-    <t>Topics in Econometrics</t>
+    <t>TopicsinEconometrics</t>
   </si>
   <si>
     <t>빅데이터경제학</t>
@@ -2761,7 +2761,7 @@
     <t>기초금속공예</t>
   </si>
   <si>
-    <t>Maker Project 캡스톤디자인Ⅰ</t>
+    <t>MakerProject캡스톤디자인Ⅰ</t>
   </si>
   <si>
     <t>공예도자I</t>
@@ -2839,7 +2839,7 @@
     <t>고급모션디자인</t>
   </si>
   <si>
-    <t>영상프로덕션 Ⅲ</t>
+    <t>영상프로덕션Ⅲ</t>
   </si>
   <si>
     <t>졸업작품연구Ⅱ</t>
@@ -2854,7 +2854,7 @@
     <t>인간과모빌리티</t>
   </si>
   <si>
-    <t>Visual Communication 1</t>
+    <t>VisualCommunication1</t>
   </si>
   <si>
     <t>고급디지털모델링2</t>
@@ -2863,7 +2863,7 @@
     <t>자동차디자인스튜디오1</t>
   </si>
   <si>
-    <t>Visual Communication 3</t>
+    <t>VisualCommunication3</t>
   </si>
   <si>
     <t>인테리어디자인스튜디오2:캡스톤디자인</t>
@@ -2875,7 +2875,7 @@
     <t>모빌리티솔루션디자인1:캡스톤디자인</t>
   </si>
   <si>
-    <t>Advanced 디지털모델링</t>
+    <t>Advanced디지털모델링</t>
   </si>
   <si>
     <t>기초디자인1</t>
@@ -2932,7 +2932,7 @@
     <t>목질복합재료학</t>
   </si>
   <si>
-    <t>유기화학 II</t>
+    <t>유기화학II</t>
   </si>
   <si>
     <t>섬유재료화학및실험</t>
@@ -2965,7 +2965,7 @@
     <t>기초물리학</t>
   </si>
   <si>
-    <t>전자기학 II</t>
+    <t>전자기학II</t>
   </si>
   <si>
     <t>열및통계물리</t>
@@ -2977,7 +2977,7 @@
     <t>기초현대물리학</t>
   </si>
   <si>
-    <t>양자역학 I</t>
+    <t>양자역학I</t>
   </si>
   <si>
     <t>전산수리물리학</t>
@@ -3199,13 +3199,13 @@
     <t>관현악합주III</t>
   </si>
   <si>
-    <t>오페라웍샵및무대연기 캡스톤디자인I</t>
+    <t>오페라웍샵및무대연기캡스톤디자인I</t>
   </si>
   <si>
     <t>관현악합주V</t>
   </si>
   <si>
-    <t>오페라웍샵및무대연기 캡스톤디자인 III</t>
+    <t>오페라웍샵및무대연기캡스톤디자인III</t>
   </si>
   <si>
     <t>관현악합주VII</t>
@@ -3502,49 +3502,49 @@
     <t>디지털비즈니스</t>
   </si>
   <si>
-    <t>Consumer Behavior</t>
-  </si>
-  <si>
-    <t>Financial Institutions</t>
-  </si>
-  <si>
-    <t>Principles of Marketing</t>
-  </si>
-  <si>
-    <t>Financial Management</t>
-  </si>
-  <si>
-    <t>Organizational Behavior</t>
-  </si>
-  <si>
-    <t>Management Accounting</t>
-  </si>
-  <si>
-    <t>Principles of Accounting</t>
-  </si>
-  <si>
-    <t>Principles of Economics</t>
-  </si>
-  <si>
-    <t>SCM &amp; Logistics</t>
-  </si>
-  <si>
-    <t>Business Statistics</t>
-  </si>
-  <si>
-    <t>International Business Practices</t>
+    <t>ConsumerBehavior</t>
+  </si>
+  <si>
+    <t>FinancialInstitutions</t>
+  </si>
+  <si>
+    <t>PrinciplesofMarketing</t>
+  </si>
+  <si>
+    <t>FinancialManagement</t>
+  </si>
+  <si>
+    <t>OrganizationalBehavior</t>
+  </si>
+  <si>
+    <t>ManagementAccounting</t>
+  </si>
+  <si>
+    <t>PrinciplesofAccounting</t>
+  </si>
+  <si>
+    <t>PrinciplesofEconomics</t>
+  </si>
+  <si>
+    <t>SCM&amp;Logistics</t>
+  </si>
+  <si>
+    <t>BusinessStatistics</t>
+  </si>
+  <si>
+    <t>InternationalBusinessPractices</t>
   </si>
   <si>
     <t>Negotiations</t>
   </si>
   <si>
-    <t>Business Ethics</t>
-  </si>
-  <si>
-    <t>Digital Innovation</t>
-  </si>
-  <si>
-    <t>Strategy and leadership</t>
+    <t>BusinessEthics</t>
+  </si>
+  <si>
+    <t>DigitalInnovation</t>
+  </si>
+  <si>
+    <t>Strategyandleadership</t>
   </si>
   <si>
     <t>국제재무</t>
@@ -3784,7 +3784,7 @@
     <t>자동제어</t>
   </si>
   <si>
-    <t>자동차 Adventure Design II</t>
+    <t>자동차AdventureDesignII</t>
   </si>
   <si>
     <t>회로이론</t>
@@ -3919,7 +3919,7 @@
     <t>영상속일본문화읽기</t>
   </si>
   <si>
-    <t>Introduction to Ancient Greek Mythology</t>
+    <t>IntroductiontoAncientGreekMythology</t>
   </si>
   <si>
     <t>한국어1</t>
@@ -3949,7 +3949,7 @@
     <t>기초한국어</t>
   </si>
   <si>
-    <t>Cultural Business Discussions</t>
+    <t>CulturalBusinessDiscussions</t>
   </si>
   <si>
     <t>창의적인한국어글쓰기</t>
@@ -4099,7 +4099,7 @@
     <t>커뮤니케이션과삶</t>
   </si>
   <si>
-    <t>Australia-East Asia History</t>
+    <t>Australia-EastAsiaHistory</t>
   </si>
   <si>
     <t>미디어를통한금융의이해</t>
@@ -4108,7 +4108,7 @@
     <t>지리공간의이해</t>
   </si>
   <si>
-    <t>Advanced Writing Skills for Business Professionals</t>
+    <t>AdvancedWritingSkillsforBusinessProfessionals</t>
   </si>
   <si>
     <t>문화이론과대중문화</t>
@@ -4135,7 +4135,7 @@
     <t>심리연구세미나</t>
   </si>
   <si>
-    <t>UROP I</t>
+    <t>UROPI</t>
   </si>
   <si>
     <t>안보학</t>
@@ -4150,13 +4150,13 @@
     <t>현장실습1</t>
   </si>
   <si>
-    <t>KOSAF 취업연계 인턴십1</t>
+    <t>KOSAF취업연계인턴십1</t>
   </si>
   <si>
     <t>현장실습4</t>
   </si>
   <si>
-    <t>KOSAF 취업연계 인턴십4</t>
+    <t>KOSAF취업연계인턴십4</t>
   </si>
   <si>
     <t>창업실습</t>
@@ -4180,49 +4180,49 @@
     <t>건축설계07</t>
   </si>
   <si>
-    <t>건축설계09 : 캡스톤디자인</t>
+    <t>건축설계09:캡스톤디자인</t>
   </si>
   <si>
     <t>현장실습2</t>
   </si>
   <si>
-    <t>KOSAF 취업연계 인턴십2</t>
+    <t>KOSAF취업연계인턴십2</t>
   </si>
   <si>
     <t>현장실습3</t>
   </si>
   <si>
-    <t>KOSAF 취업연계 인턴십3</t>
+    <t>KOSAF취업연계인턴십3</t>
   </si>
   <si>
     <t>현장실습5</t>
   </si>
   <si>
-    <t>KOSAF 취업연계 인턴십5</t>
+    <t>KOSAF취업연계인턴십5</t>
   </si>
   <si>
     <t>현장실습6</t>
   </si>
   <si>
-    <t>KOSAF 취업연계 인턴십6</t>
+    <t>KOSAF취업연계인턴십6</t>
   </si>
   <si>
     <t>현장실습7</t>
   </si>
   <si>
-    <t>KOSAF 취업연계 인턴십7</t>
+    <t>KOSAF취업연계인턴십7</t>
   </si>
   <si>
     <t>현장실습8</t>
   </si>
   <si>
-    <t>KOSAF 취업연계 인턴십8</t>
+    <t>KOSAF취업연계인턴십8</t>
   </si>
   <si>
     <t>현장실습9</t>
   </si>
   <si>
-    <t>KOSAF 취업연계 인턴십9</t>
+    <t>KOSAF취업연계인턴십9</t>
   </si>
   <si>
     <t>창업현장실습</t>
@@ -11534,7 +11534,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J2799"/>
+  <dimension ref="A1:J2800"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -98723,6 +98723,17 @@
         <v>3374</v>
       </c>
     </row>
+    <row r="2800" spans="1:10">
+      <c r="A2800" s="1">
+        <v>2798</v>
+      </c>
+      <c r="B2800" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2800" t="s">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
